--- a/config/security/hu_little_register.xlsx
+++ b/config/security/hu_little_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\adoration\config\security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\orokimadas\config\security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05552CFA-68EA-4E43-8C20-FC9E8B6BBDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B38D5-D706-4832-94E7-2DD2EC7CFBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1860" windowWidth="24975" windowHeight="12300" activeTab="1" xr2:uid="{407EA927-167F-43C1-920F-BD0389F0FD15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{407EA927-167F-43C1-920F-BD0389F0FD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Adorálók" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -201,6 +209,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">További információk: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://orokimadas.magyar.website</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">vagy jelentkezz a </t>
     </r>
     <r>
@@ -211,7 +234,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>https://orokimadas.info</t>
+      <t>https://orokimadas.magyar.website</t>
     </r>
     <r>
       <rPr>
@@ -222,21 +245,6 @@
         <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> weboldalon.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">További információk: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://orokimadas.info</t>
     </r>
   </si>
 </sst>
@@ -479,10 +487,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -506,12 +520,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,15 +542,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93135</xdr:rowOff>
+      <xdr:colOff>343483</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1965325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>126891</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15398</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,15 +566,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1121833" y="4030135"/>
-          <a:ext cx="1457325" cy="1494256"/>
+          <a:off x="957316" y="3884083"/>
+          <a:ext cx="1777999" cy="1777999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,7 +977,7 @@
   <dimension ref="B2:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,33 +993,33 @@
     <row r="2" spans="2:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
@@ -1042,70 +1055,70 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="2:30" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
     </row>
     <row r="5" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
     </row>
     <row r="6" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -1139,101 +1152,101 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
     </row>
     <row r="8" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
     </row>
     <row r="9" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
@@ -1272,32 +1285,32 @@
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
@@ -1382,7 +1395,7 @@
     </row>
     <row r="13" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1453,7 +1466,7 @@
     </row>
     <row r="14" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1522,7 +1535,7 @@
     </row>
     <row r="15" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1604,7 @@
     </row>
     <row r="16" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1673,7 @@
     </row>
     <row r="17" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1729,7 +1742,7 @@
     </row>
     <row r="18" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1811,7 @@
     </row>
     <row r="19" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1869,38 +1882,38 @@
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="14" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="16" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18" t="s">
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="20"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="22"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
@@ -1936,70 +1949,70 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
+      <c r="B23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2034,12 +2047,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D2:AB2"/>
-    <mergeCell ref="B7:AD7"/>
-    <mergeCell ref="B8:AD8"/>
-    <mergeCell ref="D9:AB9"/>
-    <mergeCell ref="B5:AD5"/>
-    <mergeCell ref="B4:AD4"/>
+    <mergeCell ref="B23:AD23"/>
     <mergeCell ref="B22:AD22"/>
     <mergeCell ref="E11:AB11"/>
     <mergeCell ref="C13:C19"/>
@@ -2047,7 +2055,12 @@
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:V20"/>
     <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="B23:AD23"/>
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="B7:AD7"/>
+    <mergeCell ref="B8:AD8"/>
+    <mergeCell ref="D9:AB9"/>
+    <mergeCell ref="B5:AD5"/>
+    <mergeCell ref="B4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:AB19">
     <cfRule type="colorScale" priority="1">

--- a/config/security/hu_little_register.xlsx
+++ b/config/security/hu_little_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\orokimadas\config\security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B38D5-D706-4832-94E7-2DD2EC7CFBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442760D0-C2FC-4023-A585-629921286916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{407EA927-167F-43C1-920F-BD0389F0FD15}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="9915" activeTab="1" xr2:uid="{407EA927-167F-43C1-920F-BD0389F0FD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Adorálók" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -487,15 +479,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,6 +502,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,8 +968,8 @@
   </sheetPr>
   <dimension ref="B2:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,33 +985,33 @@
     <row r="2" spans="2:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
@@ -1055,70 +1047,70 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="2:30" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
     </row>
     <row r="5" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
     </row>
     <row r="6" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -1152,101 +1144,101 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
     </row>
     <row r="8" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
     </row>
     <row r="9" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
@@ -1285,32 +1277,32 @@
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
@@ -1395,7 +1387,7 @@
     </row>
     <row r="13" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1466,7 +1458,7 @@
     </row>
     <row r="14" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1527,7 @@
     </row>
     <row r="15" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1596,7 @@
     </row>
     <row r="16" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1665,7 @@
     </row>
     <row r="17" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1685,7 +1677,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="8" t="str">
-        <f t="shared" ref="L17:W17" si="4">IF(L44=0,"",IF(L44&gt;1,"❷","①"))</f>
+        <f t="shared" ref="L17:AA17" si="4">IF(L44=0,"",IF(L44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M17" s="8" t="str">
@@ -1732,17 +1724,29 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
+      <c r="X17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
@@ -1811,7 +1815,7 @@
     </row>
     <row r="19" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1882,38 +1886,38 @@
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="16" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="18" t="s">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="22"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="19"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
@@ -1949,70 +1953,70 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2047,6 +2051,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="B7:AD7"/>
+    <mergeCell ref="B8:AD8"/>
+    <mergeCell ref="D9:AB9"/>
+    <mergeCell ref="B5:AD5"/>
+    <mergeCell ref="B4:AD4"/>
     <mergeCell ref="B23:AD23"/>
     <mergeCell ref="B22:AD22"/>
     <mergeCell ref="E11:AB11"/>
@@ -2055,12 +2065,6 @@
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:V20"/>
     <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="D2:AB2"/>
-    <mergeCell ref="B7:AD7"/>
-    <mergeCell ref="B8:AD8"/>
-    <mergeCell ref="D9:AB9"/>
-    <mergeCell ref="B5:AD5"/>
-    <mergeCell ref="B4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:AB19">
     <cfRule type="colorScale" priority="1">

--- a/config/security/hu_little_register.xlsx
+++ b/config/security/hu_little_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\orokimadas\config\security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442760D0-C2FC-4023-A585-629921286916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA717F-85ED-4F16-9586-F8FC51807254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="9915" activeTab="1" xr2:uid="{407EA927-167F-43C1-920F-BD0389F0FD15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{407EA927-167F-43C1-920F-BD0389F0FD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Adorálók" sheetId="1" r:id="rId1"/>
@@ -479,6 +479,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,15 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +968,8 @@
   </sheetPr>
   <dimension ref="B2:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,33 +985,33 @@
     <row r="2" spans="2:30" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
@@ -1047,70 +1047,70 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="2:30" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
     </row>
     <row r="5" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
     </row>
     <row r="6" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -1144,101 +1144,101 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
     </row>
     <row r="8" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
     </row>
     <row r="9" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
@@ -1277,32 +1277,32 @@
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
@@ -1387,11 +1387,11 @@
     </row>
     <row r="13" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1401,55 +1401,61 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="8" t="str">
-        <f>IF(L40=0,"",IF(L40&gt;1,"❷","①"))</f>
+        <f>IF(L41=0,"",IF(L41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M13" s="8" t="str">
-        <f t="shared" ref="M13:W13" si="0">IF(M40=0,"",IF(M40&gt;1,"❷","①"))</f>
+        <f>IF(M41=0,"",IF(M41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="N13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(N41=0,"",IF(N41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="O13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(O41=0,"",IF(O41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="P13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(P41=0,"",IF(P41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Q13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(Q41=0,"",IF(Q41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="R13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(R41=0,"",IF(R41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="S13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(S41=0,"",IF(S41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="T13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(T41=0,"",IF(T41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="U13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(U41=0,"",IF(U41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="V13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(V41=0,"",IF(V41&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
+        <f>IF(W41=0,"",IF(W41&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="X13" s="8" t="str">
+        <f>IF(X41=0,"",IF(X41&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="Y13" s="8" t="str">
+        <f>IF(Y41=0,"",IF(Y41&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -1458,9 +1464,9 @@
     </row>
     <row r="14" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1470,66 +1476,78 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="8" t="str">
-        <f t="shared" ref="L14:W14" si="1">IF(L41=0,"",IF(L41&gt;1,"❷","①"))</f>
+        <f>IF(L42=0,"",IF(L42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M42=0,"",IF(M42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="N14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(N42=0,"",IF(N42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="O14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(O42=0,"",IF(O42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="P14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(P42=0,"",IF(P42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Q14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(Q42=0,"",IF(Q42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="R14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(R42=0,"",IF(R42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="S14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(S42=0,"",IF(S42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="T14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(T42=0,"",IF(T42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="U14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(U42=0,"",IF(U42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="V14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(V42=0,"",IF(V42&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
+        <f>IF(W42=0,"",IF(W42&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="X14" s="8" t="str">
+        <f>IF(X42=0,"",IF(X42&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="Y14" s="8" t="str">
+        <f>IF(Y42=0,"",IF(Y42&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="Z14" s="8" t="str">
+        <f>IF(Z42=0,"",IF(Z42&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="AA14" s="8" t="str">
+        <f>IF(AA42=0,"",IF(AA42&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1539,51 +1557,51 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="8" t="str">
-        <f t="shared" ref="L15:W15" si="2">IF(L42=0,"",IF(L42&gt;1,"❷","①"))</f>
+        <f>IF(L43=0,"",IF(L43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M43=0,"",IF(M43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="N15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(N43=0,"",IF(N43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="O15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(O43=0,"",IF(O43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="P15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(P43=0,"",IF(P43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Q15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(Q43=0,"",IF(Q43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="R15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(R43=0,"",IF(R43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="S15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(S43=0,"",IF(S43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="T15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(T43=0,"",IF(T43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="U15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(U43=0,"",IF(U43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="V15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(V43=0,"",IF(V43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(W43=0,"",IF(W43&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="X15" s="10"/>
@@ -1596,9 +1614,9 @@
     </row>
     <row r="16" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1608,136 +1626,172 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="8" t="str">
-        <f t="shared" ref="L16:W16" si="3">IF(L43=0,"",IF(L43&gt;1,"❷","①"))</f>
+        <f>IF(L44=0,"",IF(L44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(M44=0,"",IF(M44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="N16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(N44=0,"",IF(N44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="O16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(O44=0,"",IF(O44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="P16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(P44=0,"",IF(P44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Q16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(Q44=0,"",IF(Q44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="R16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(R44=0,"",IF(R44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="S16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(S44=0,"",IF(S44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="T16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(T44=0,"",IF(T44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="U16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(U44=0,"",IF(U44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="V16" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(V44=0,"",IF(V44&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+        <f>IF(W44=0,"",IF(W44&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="X16" s="8" t="str">
+        <f>IF(X44=0,"",IF(X44&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="Y16" s="8" t="str">
+        <f>IF(Y44=0,"",IF(Y44&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="Z16" s="8" t="str">
+        <f>IF(Z44=0,"",IF(Z44&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="AA16" s="8" t="str">
+        <f>IF(AA44=0,"",IF(AA44&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="AB16" s="8" t="str">
+        <f>IF(AB44=0,"",IF(AB44&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f>IF(E45=0,"",IF(E45&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f>IF(F45=0,"",IF(F45&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f>IF(G45=0,"",IF(G45&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f>IF(H45=0,"",IF(H45&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>IF(I45=0,"",IF(I45&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f>IF(J45=0,"",IF(J45&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f>IF(K45=0,"",IF(K45&gt;1,"❷","①"))</f>
+        <v/>
+      </c>
       <c r="L17" s="8" t="str">
-        <f t="shared" ref="L17:AA17" si="4">IF(L44=0,"",IF(L44&gt;1,"❷","①"))</f>
+        <f>IF(L45=0,"",IF(L45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(M45=0,"",IF(M45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="N17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N45=0,"",IF(N45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="O17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(O45=0,"",IF(O45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="P17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(P45=0,"",IF(P45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Q17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(Q45=0,"",IF(Q45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="R17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(R45=0,"",IF(R45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="S17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(S45=0,"",IF(S45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="T17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(T45=0,"",IF(T45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="U17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(U45=0,"",IF(U45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="V17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(V45=0,"",IF(V45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(W45=0,"",IF(W45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="X17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(X45=0,"",IF(X45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Y17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(Y45=0,"",IF(Y45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Z17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(Z45=0,"",IF(Z45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="AA17" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AA45=0,"",IF(AA45&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="AB17" s="10"/>
@@ -1746,9 +1800,9 @@
     </row>
     <row r="18" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1758,51 +1812,51 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="8" t="str">
-        <f t="shared" ref="L18:W18" si="5">IF(L45=0,"",IF(L45&gt;1,"❷","①"))</f>
+        <f>IF(L46=0,"",IF(L46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(M46=0,"",IF(M46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(N46=0,"",IF(N46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="O18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(O46=0,"",IF(O46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="P18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(P46=0,"",IF(P46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="Q18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q46=0,"",IF(Q46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="R18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(R46=0,"",IF(R46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="S18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(S46=0,"",IF(S46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="T18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(T46=0,"",IF(T46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="U18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(U46=0,"",IF(U46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="V18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(V46=0,"",IF(V46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(W46=0,"",IF(W46&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="X18" s="10"/>
@@ -1815,9 +1869,9 @@
     </row>
     <row r="19" spans="2:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1827,51 +1881,51 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="8" t="str">
-        <f t="shared" ref="L19:W19" si="6">IF(L46=0,"",IF(L46&gt;1,"❷","①"))</f>
+        <f>IF(L40=0,"",IF(L40&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M19:W19" si="0">IF(M40=0,"",IF(M40&gt;1,"❷","①"))</f>
         <v/>
       </c>
       <c r="N19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="R19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="V19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="X19" s="10"/>
@@ -1886,38 +1940,38 @@
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="13" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="15" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17" t="s">
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="19"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="22"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
@@ -1953,70 +2007,70 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -2051,12 +2105,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D2:AB2"/>
-    <mergeCell ref="B7:AD7"/>
-    <mergeCell ref="B8:AD8"/>
-    <mergeCell ref="D9:AB9"/>
-    <mergeCell ref="B5:AD5"/>
-    <mergeCell ref="B4:AD4"/>
     <mergeCell ref="B23:AD23"/>
     <mergeCell ref="B22:AD22"/>
     <mergeCell ref="E11:AB11"/>
@@ -2065,8 +2113,26 @@
     <mergeCell ref="K20:P20"/>
     <mergeCell ref="Q20:V20"/>
     <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="B7:AD7"/>
+    <mergeCell ref="B8:AD8"/>
+    <mergeCell ref="D9:AB9"/>
+    <mergeCell ref="B5:AD5"/>
+    <mergeCell ref="B4:AD4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E13:AB19">
+  <conditionalFormatting sqref="E13:AB18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:AB19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
